--- a/05_Shane_Code/MILP/Commonwealth_reduced.xlsx
+++ b/05_Shane_Code/MILP/Commonwealth_reduced.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="2" r:id="rId1"/>
     <sheet name="Sections" sheetId="3" r:id="rId2"/>
+    <sheet name="Parameter Table" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodes!$A$1:$M$125</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="158">
   <si>
     <t>Code</t>
   </si>
@@ -479,17 +480,38 @@
     <t>Parent Node Function:</t>
   </si>
   <si>
+    <t>DER Nodes</t>
+  </si>
+  <si>
     <t>DER Nodes:</t>
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>038 (MAIN FEED)</t>
+  </si>
+  <si>
+    <t>041 (CKT TIE)</t>
+  </si>
+  <si>
+    <t>060 (CKT TIE)</t>
+  </si>
+  <si>
+    <t>Loads Parameters</t>
+  </si>
+  <si>
+    <t>Section Parameters</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,16 +534,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -529,11 +572,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,6 +985,126 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,9 +1412,9 @@
   </sheetPr>
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -923,7 +1470,7 @@
         <v>147</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>132</v>
@@ -949,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>INDEX(Sections!$C$2:$C$124,MATCH($B2,Sections!$B$2:$B$124,0),1)</f>
@@ -993,8 +1540,7 @@
         <v>5.08</v>
       </c>
       <c r="E3" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B3,Sections!$C$2:$C$124,0),1)</f>
@@ -1097,7 +1643,7 @@
         <v>040</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J5" s="7" t="str">
         <f>INDEX(Sections!$C$2:$C$124,MATCH($B5,Sections!$B$2:$B$124,0),1)</f>
@@ -1185,7 +1731,6 @@
         <v>3.49</v>
       </c>
       <c r="E7" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H7" s="7" t="str">
@@ -1526,7 +2071,6 @@
         <v>0.7</v>
       </c>
       <c r="E15" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H15" s="7" t="str">
@@ -1611,8 +2155,7 @@
         <v>5.08</v>
       </c>
       <c r="E17" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B17,Sections!$C$2:$C$124,0),1)</f>
@@ -1654,7 +2197,6 @@
         <v>1.75</v>
       </c>
       <c r="E18" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H18" s="7" t="str">
@@ -1822,8 +2364,7 @@
         <v>1.67</v>
       </c>
       <c r="E22" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B22,Sections!$C$2:$C$124,0),1)</f>
@@ -1918,7 +2459,7 @@
         <v>059</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B24,Sections!$C$2:$C$124,0),1)</f>
@@ -1948,8 +2489,7 @@
         <v>5.08</v>
       </c>
       <c r="E25" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B25,Sections!$C$2:$C$124,0),1)</f>
@@ -2033,7 +2573,6 @@
         <v>1.67</v>
       </c>
       <c r="E27" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H27" s="7" t="str">
@@ -2076,8 +2615,7 @@
         <v>3.34</v>
       </c>
       <c r="E28" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B28,Sections!$C$2:$C$124,0),1)</f>
@@ -2119,8 +2657,7 @@
         <v>3.34</v>
       </c>
       <c r="E29" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B29,Sections!$C$2:$C$124,0),1)</f>
@@ -2162,8 +2699,7 @@
         <v>10.17</v>
       </c>
       <c r="E30" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B30,Sections!$C$2:$C$124,0),1)</f>
@@ -2247,7 +2783,6 @@
         <v>3.34</v>
       </c>
       <c r="E32" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H32" s="7" t="str">
@@ -2290,7 +2825,6 @@
         <v>3.34</v>
       </c>
       <c r="E33" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H33" s="7" t="str">
@@ -2333,7 +2867,6 @@
         <v>1.75</v>
       </c>
       <c r="E34" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H34" s="7" t="str">
@@ -2349,7 +2882,7 @@
         <v>045</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L34" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B34,Sections!$C$2:$C$124,0),1)</f>
@@ -2375,8 +2908,7 @@
         <v>1.67</v>
       </c>
       <c r="E35" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B35,Sections!$C$2:$C$124,0),1)</f>
@@ -2460,7 +2992,6 @@
         <v>3.34</v>
       </c>
       <c r="E37" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H37" s="7" t="str">
@@ -2503,8 +3034,7 @@
         <v>1.75</v>
       </c>
       <c r="E38" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B38,Sections!$C$2:$C$124,0),1)</f>
@@ -2546,8 +3076,7 @@
         <v>5.08</v>
       </c>
       <c r="E39" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B39,Sections!$C$2:$C$124,0),1)</f>
@@ -2589,8 +3118,7 @@
         <v>1.67</v>
       </c>
       <c r="E40" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B40,Sections!$C$2:$C$124,0),1)</f>
@@ -2674,8 +3202,7 @@
         <v>3.49</v>
       </c>
       <c r="E42" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B42,Sections!$C$2:$C$124,0),1)</f>
@@ -2759,7 +3286,6 @@
         <v>1.75</v>
       </c>
       <c r="E44" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H44" s="7" t="str">
@@ -2802,8 +3328,7 @@
         <v>1.05</v>
       </c>
       <c r="E45" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B45,Sections!$C$2:$C$124,0),1)</f>
@@ -2845,8 +3370,7 @@
         <v>1.05</v>
       </c>
       <c r="E46" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B46,Sections!$C$2:$C$124,0),1)</f>
@@ -2888,8 +3412,7 @@
         <v>3.49</v>
       </c>
       <c r="E47" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B47,Sections!$C$2:$C$124,0),1)</f>
@@ -2931,7 +3454,6 @@
         <v>3.34</v>
       </c>
       <c r="E48" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H48" s="7" t="str">
@@ -2974,7 +3496,6 @@
         <v>5</v>
       </c>
       <c r="E49" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H49" s="7" t="str">
@@ -3059,8 +3580,7 @@
         <v>1.67</v>
       </c>
       <c r="E51" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B51,Sections!$C$2:$C$124,0),1)</f>
@@ -3102,8 +3622,7 @@
         <v>1.67</v>
       </c>
       <c r="E52" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B52,Sections!$C$2:$C$124,0),1)</f>
@@ -3145,8 +3664,7 @@
         <v>1.67</v>
       </c>
       <c r="E53" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B53,Sections!$C$2:$C$124,0),1)</f>
@@ -3188,8 +3706,7 @@
         <v>1.67</v>
       </c>
       <c r="E54" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B54,Sections!$C$2:$C$124,0),1)</f>
@@ -3273,8 +3790,7 @@
         <v>3.34</v>
       </c>
       <c r="E56" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B56,Sections!$C$2:$C$124,0),1)</f>
@@ -3316,8 +3832,7 @@
         <v>3.34</v>
       </c>
       <c r="E57" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B57,Sections!$C$2:$C$124,0),1)</f>
@@ -3359,7 +3874,6 @@
         <v>1.67</v>
       </c>
       <c r="E58" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H58" s="7" t="str">
@@ -3402,7 +3916,6 @@
         <v>1.67</v>
       </c>
       <c r="E59" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H59" s="7" t="str">
@@ -3445,7 +3958,6 @@
         <v>3.34</v>
       </c>
       <c r="E60" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H60" s="7" t="str">
@@ -3530,8 +4042,7 @@
         <v>11.16</v>
       </c>
       <c r="E62" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B62,Sections!$C$2:$C$124,0),1)</f>
@@ -3615,8 +4126,7 @@
         <v>1.67</v>
       </c>
       <c r="E64" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B64,Sections!$C$2:$C$124,0),1)</f>
@@ -3700,8 +4210,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="E66" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B66,Sections!$C$2:$C$124,0),1)</f>
@@ -3785,7 +4294,6 @@
         <v>3.34</v>
       </c>
       <c r="E68" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H68" s="7" t="str">
@@ -3828,7 +4336,6 @@
         <v>3.34</v>
       </c>
       <c r="E69" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H69" s="7" t="str">
@@ -3871,8 +4378,7 @@
         <v>3.34</v>
       </c>
       <c r="E70" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B70,Sections!$C$2:$C$124,0),1)</f>
@@ -3914,8 +4420,7 @@
         <v>10.17</v>
       </c>
       <c r="E71" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B71,Sections!$C$2:$C$124,0),1)</f>
@@ -3957,8 +4462,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="E72" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B72,Sections!$C$2:$C$124,0),1)</f>
@@ -4042,8 +4546,7 @@
         <v>3.49</v>
       </c>
       <c r="E74" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B74,Sections!$C$2:$C$124,0),1)</f>
@@ -4085,8 +4588,7 @@
         <v>3.49</v>
       </c>
       <c r="E75" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B75,Sections!$C$2:$C$124,0),1)</f>
@@ -4128,7 +4630,6 @@
         <v>3.34</v>
       </c>
       <c r="E76" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H76" s="7" t="str">
@@ -4171,8 +4672,7 @@
         <v>3.34</v>
       </c>
       <c r="E77" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B77,Sections!$C$2:$C$124,0),1)</f>
@@ -4255,8 +4755,7 @@
         <v>1.67</v>
       </c>
       <c r="E79" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B79,Sections!$C$2:$C$124,0),1)</f>
@@ -4297,8 +4796,7 @@
         <v>1.67</v>
       </c>
       <c r="E80" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B80,Sections!$C$2:$C$124,0),1)</f>
@@ -4339,7 +4837,6 @@
         <v>3.34</v>
       </c>
       <c r="E81" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H81" s="7" t="str">
@@ -4441,7 +4938,7 @@
         <v>246</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M83" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B83,Sections!$C$2:$C$124,0),1)</f>
@@ -4463,7 +4960,6 @@
         <v>11.67</v>
       </c>
       <c r="E84" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H84" s="7" t="str">
@@ -4506,8 +5002,7 @@
         <v>11.67</v>
       </c>
       <c r="E85" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B85,Sections!$C$2:$C$124,0),1)</f>
@@ -4591,7 +5086,6 @@
         <v>11.67</v>
       </c>
       <c r="E87" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H87" s="7" t="str">
@@ -4634,7 +5128,6 @@
         <v>11.67</v>
       </c>
       <c r="E88" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H88" s="7" t="str">
@@ -4677,7 +5170,6 @@
         <v>11.14</v>
       </c>
       <c r="E89" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H89" s="7" t="str">
@@ -4720,8 +5212,7 @@
         <v>11.14</v>
       </c>
       <c r="E90" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B90,Sections!$C$2:$C$124,0),1)</f>
@@ -4763,7 +5254,6 @@
         <v>11.14</v>
       </c>
       <c r="E91" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H91" s="7" t="str">
@@ -4806,8 +5296,7 @@
         <v>1.67</v>
       </c>
       <c r="E92" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B92,Sections!$C$2:$C$124,0),1)</f>
@@ -4849,8 +5338,7 @@
         <v>3.34</v>
       </c>
       <c r="E93" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B93,Sections!$C$2:$C$124,0),1)</f>
@@ -4934,7 +5422,6 @@
         <v>11.16</v>
       </c>
       <c r="E95" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H95" s="7" t="str">
@@ -4977,8 +5464,7 @@
         <v>6.68</v>
       </c>
       <c r="E96" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B96,Sections!$C$2:$C$124,0),1)</f>
@@ -5062,7 +5548,6 @@
         <v>11.16</v>
       </c>
       <c r="E98" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H98" s="7" t="str">
@@ -5105,7 +5590,6 @@
         <v>11.16</v>
       </c>
       <c r="E99" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H99" s="7" t="str">
@@ -5148,7 +5632,6 @@
         <v>11.16</v>
       </c>
       <c r="E100" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H100" s="7" t="str">
@@ -5191,8 +5674,7 @@
         <v>5.08</v>
       </c>
       <c r="E101" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B101,Sections!$C$2:$C$124,0),1)</f>
@@ -5276,7 +5758,6 @@
         <v>3.34</v>
       </c>
       <c r="E103" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H103" s="7" t="str">
@@ -5319,7 +5800,6 @@
         <v>1.67</v>
       </c>
       <c r="E104" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H104" s="7" t="str">
@@ -5362,8 +5842,7 @@
         <v>1.67</v>
       </c>
       <c r="E105" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B105,Sections!$C$2:$C$124,0),1)</f>
@@ -5405,8 +5884,7 @@
         <v>1.67</v>
       </c>
       <c r="E106" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B106,Sections!$C$2:$C$124,0),1)</f>
@@ -5448,8 +5926,7 @@
         <v>3.49</v>
       </c>
       <c r="E107" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B107,Sections!$C$2:$C$124,0),1)</f>
@@ -5531,8 +6008,7 @@
         <v>5.08</v>
       </c>
       <c r="E109" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B109,Sections!$C$2:$C$124,0),1)</f>
@@ -5573,7 +6049,6 @@
         <v>5.08</v>
       </c>
       <c r="E110" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H110" s="7" t="str">
@@ -5615,8 +6090,7 @@
         <v>5.08</v>
       </c>
       <c r="E111" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B111,Sections!$C$2:$C$124,0),1)</f>
@@ -5639,7 +6113,7 @@
         <v>275</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O111" s="4"/>
     </row>
@@ -5657,8 +6131,7 @@
         <v>15.25</v>
       </c>
       <c r="E112" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B112,Sections!$C$2:$C$124,0),1)</f>
@@ -5700,7 +6173,6 @@
         <v>1.67</v>
       </c>
       <c r="E113" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="H113" s="7" t="str">
@@ -5785,8 +6257,7 @@
         <v>15.25</v>
       </c>
       <c r="E115" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B115,Sections!$C$2:$C$124,0),1)</f>
@@ -5828,8 +6299,7 @@
         <v>3.49</v>
       </c>
       <c r="E116" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H116" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B116,Sections!$C$2:$C$124,0),1)</f>
@@ -5871,8 +6341,7 @@
         <v>3.49</v>
       </c>
       <c r="E117" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B117,Sections!$C$2:$C$124,0),1)</f>
@@ -5956,8 +6425,7 @@
         <v>11.67</v>
       </c>
       <c r="E119" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B119,Sections!$C$2:$C$124,0),1)</f>
@@ -5999,7 +6467,6 @@
         <v>1.05</v>
       </c>
       <c r="E120" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H120" s="7" t="str">
@@ -6042,8 +6509,7 @@
         <v>3.49</v>
       </c>
       <c r="E121" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B121,Sections!$C$2:$C$124,0),1)</f>
@@ -6085,7 +6551,6 @@
         <v>3.49</v>
       </c>
       <c r="E122" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H122" s="7" t="str">
@@ -6128,7 +6593,6 @@
         <v>1.75</v>
       </c>
       <c r="E123" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
       <c r="H123" s="7" t="str">
@@ -6171,7 +6635,6 @@
         <v>1.75</v>
       </c>
       <c r="E124" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
       <c r="H124" s="7" t="str">
@@ -6214,8 +6677,7 @@
         <v>1.75</v>
       </c>
       <c r="E125" s="4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125" s="7" t="str">
         <f>INDEX(Sections!$B$2:$C$124,MATCH($B125,Sections!$C$2:$C$124,0),1)</f>
@@ -6261,9 +6723,9 @@
   </sheetPr>
   <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -12437,4 +12899,382 @@
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="1000" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="45" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" style="45" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="45" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" style="45" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" s="46" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25">
+        <v>24.68</v>
+      </c>
+      <c r="D4" s="26">
+        <v>5.08</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="J4" s="26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="30">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="32">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="D5" s="33">
+        <v>3.49</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K5" s="34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="37">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="32">
+        <v>3.58</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="33">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="33">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K6" s="34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="37">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="32">
+        <v>24.68</v>
+      </c>
+      <c r="D7" s="33">
+        <v>5.08</v>
+      </c>
+      <c r="E7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="33">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J7" s="33">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K7" s="34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="32">
+        <v>7.23</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1.67</v>
+      </c>
+      <c r="E9" s="34">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="34" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="G10" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1.75</v>
+      </c>
+      <c r="E11" s="27">
+        <v>3</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K11" s="27" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="41">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D12" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="E12" s="43">
+        <v>3</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0.105</v>
+      </c>
+      <c r="K12" s="43" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:K10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>